--- a/documentation/Estimated_Effort.xlsx
+++ b/documentation/Estimated_Effort.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariamhabib\Documents\Software Engineering Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irem_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6146B431-45D4-4394-8E1F-EF2DA6F94E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B2DAA2-5C60-4D18-81DB-19BD96B919F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team1_Estimated_Effort" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -321,6 +321,24 @@
   <si>
     <t>Irem, Grant, Mariam</t>
   </si>
+  <si>
+    <t>Iteration 4:</t>
+  </si>
+  <si>
+    <t>Iteration 5:</t>
+  </si>
+  <si>
+    <t>Fix HTML patterns</t>
+  </si>
+  <si>
+    <t>Develop business logic</t>
+  </si>
+  <si>
+    <t>Fix HTML and CSS patterns as needed</t>
+  </si>
+  <si>
+    <t>Scott, Maryam</t>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +348,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -385,19 +403,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -425,8 +430,27 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="2"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,12 +483,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="63"/>
-        <bgColor indexed="59"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -602,14 +638,38 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="hair">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1037,47 +1097,51 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1529,30 +1593,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF62"/>
+  <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.71875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.71875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.71875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.71875" style="4" customWidth="1"/>
     <col min="10" max="12" width="9" style="4"/>
     <col min="13" max="17" width="9" style="7"/>
     <col min="18" max="32" width="9" style="4"/>
     <col min="33" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1586,7 +1650,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1698,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1690,7 +1754,7 @@
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
     </row>
-    <row r="4" spans="1:32" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1744,7 +1808,7 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
     </row>
-    <row r="5" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +1844,7 @@
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
     </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1824,7 +1888,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="40" t="s">
@@ -1875,7 +1939,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="32"/>
       <c r="B8" s="33" t="s">
         <v>20</v>
@@ -1920,7 +1984,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="47" t="s">
@@ -1929,14 +1993,14 @@
       <c r="D9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="151" t="s">
+      <c r="E9" s="141" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="43">
         <v>2</v>
       </c>
       <c r="G9" s="44"/>
-      <c r="H9" s="152">
+      <c r="H9" s="142">
         <f>SUM(M9:Q9)</f>
         <v>6</v>
       </c>
@@ -1978,7 +2042,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="47" t="s">
@@ -1987,7 +2051,7 @@
       <c r="D10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="151" t="s">
+      <c r="E10" s="141" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="43">
@@ -2036,7 +2100,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="47" t="s">
@@ -2045,7 +2109,7 @@
       <c r="D11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="151" t="s">
+      <c r="E11" s="141" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="43">
@@ -2094,7 +2158,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="32"/>
       <c r="B12" s="33" t="s">
         <v>26</v>
@@ -2110,7 +2174,7 @@
       <c r="H12" s="37"/>
       <c r="I12" s="38">
         <f>SUM(H13:H19)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2139,7 +2203,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="47" t="s">
@@ -2191,7 +2255,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="47" t="s">
@@ -2241,7 +2305,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="47" t="s">
@@ -2259,7 +2323,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="43">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="5"/>
@@ -2272,11 +2336,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
+      <c r="P15" s="45">
+        <v>0.5</v>
+      </c>
       <c r="Q15" s="45"/>
       <c r="R15" s="45">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -2293,7 +2359,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="47" t="s">
@@ -2311,7 +2377,7 @@
       <c r="G16" s="44"/>
       <c r="H16" s="43">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="5"/>
@@ -2324,11 +2390,13 @@
         <v>2</v>
       </c>
       <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
+      <c r="P16" s="45">
+        <v>1.5</v>
+      </c>
       <c r="Q16" s="45"/>
       <c r="R16" s="45">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -2345,7 +2413,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="47" t="s">
@@ -2363,7 +2431,7 @@
       <c r="G17" s="44"/>
       <c r="H17" s="43">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="5"/>
@@ -2374,13 +2442,15 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
+      <c r="P17" s="45">
+        <v>2</v>
+      </c>
       <c r="Q17" s="45">
         <v>1</v>
       </c>
       <c r="R17" s="45">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -2397,7 +2467,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="47" t="s">
@@ -2447,7 +2517,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
@@ -2482,7 +2552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" s="57" t="s">
         <v>41</v>
       </c>
@@ -2507,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="66" t="s">
         <v>42</v>
       </c>
@@ -2554,7 +2624,7 @@
       <c r="AE21" s="71"/>
       <c r="AF21" s="71"/>
     </row>
-    <row r="22" spans="1:32" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A22" s="66"/>
       <c r="B22" s="73"/>
       <c r="C22" s="74" t="s">
@@ -2612,7 +2682,7 @@
       <c r="AE22" s="71"/>
       <c r="AF22" s="71"/>
     </row>
-    <row r="23" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A23" s="66"/>
       <c r="B23" s="73"/>
       <c r="C23" s="74" t="s">
@@ -2650,7 +2720,7 @@
       </c>
       <c r="R23" s="80"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A24" s="66"/>
       <c r="B24" s="73"/>
       <c r="C24" s="74" t="s">
@@ -2659,7 +2729,7 @@
       <c r="D24" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="150" t="s">
+      <c r="E24" s="140" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="77">
@@ -2685,7 +2755,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A25" s="66"/>
       <c r="B25" s="82"/>
       <c r="C25" s="81" t="s">
@@ -2694,7 +2764,7 @@
       <c r="D25" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="150" t="s">
+      <c r="E25" s="140" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="77">
@@ -2718,7 +2788,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A26" s="66"/>
       <c r="B26" s="83"/>
       <c r="C26" s="84" t="s">
@@ -2751,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A27" s="66"/>
       <c r="B27" s="90" t="s">
         <v>51</v>
@@ -2779,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A28" s="66"/>
       <c r="B28" s="82"/>
       <c r="C28" s="74" t="s">
@@ -2812,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A29" s="66"/>
       <c r="B29" s="82"/>
       <c r="C29" s="74" t="s">
@@ -2821,7 +2891,7 @@
       <c r="D29" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="150" t="s">
+      <c r="E29" s="140" t="s">
         <v>55</v>
       </c>
       <c r="F29" s="77">
@@ -2845,7 +2915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A30" s="66"/>
       <c r="B30" s="82"/>
       <c r="C30" s="74" t="s">
@@ -2882,15 +2952,15 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="92"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="146"/>
       <c r="E31" s="98"/>
       <c r="F31" s="93"/>
       <c r="G31" s="99">
@@ -2929,7 +2999,7 @@
       <c r="AE31" s="71"/>
       <c r="AF31" s="71"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A32" s="95"/>
       <c r="B32" s="101"/>
       <c r="C32" s="102" t="s">
@@ -2962,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A33" s="95"/>
       <c r="B33" s="101"/>
       <c r="C33" s="102" t="s">
@@ -2995,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A34" s="95"/>
       <c r="B34" s="101"/>
       <c r="C34" s="102" t="s">
@@ -3028,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A35" s="95"/>
       <c r="B35" s="101"/>
       <c r="C35" s="102" t="s">
@@ -3057,11 +3127,11 @@
         <v>6</v>
       </c>
       <c r="R35" s="107">
-        <f t="shared" ref="R35:R59" si="3">SUM(M35:Q35)</f>
+        <f t="shared" ref="R35:R57" si="3">SUM(M35:Q35)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A36" s="95"/>
       <c r="B36" s="108"/>
       <c r="C36" s="109" t="s">
@@ -3094,7 +3164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A37" s="95"/>
       <c r="B37" s="96" t="s">
         <v>43</v>
@@ -3122,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A38" s="95"/>
       <c r="B38" s="101"/>
       <c r="C38" s="102" t="s">
@@ -3161,7 +3231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A39" s="95"/>
       <c r="B39" s="101"/>
       <c r="C39" s="102" t="s">
@@ -3194,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A40" s="95"/>
       <c r="B40" s="101"/>
       <c r="C40" s="102" t="s">
@@ -3227,7 +3297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A41" s="95"/>
       <c r="B41" s="101"/>
       <c r="C41" s="102" t="s">
@@ -3260,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A42" s="95"/>
       <c r="B42" s="108"/>
       <c r="C42" s="109" t="s">
@@ -3295,7 +3365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A43" s="95"/>
       <c r="B43" s="96" t="s">
         <v>51</v>
@@ -3323,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A44" s="95"/>
       <c r="B44" s="101"/>
       <c r="C44" s="102" t="s">
@@ -3358,7 +3428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A45" s="95"/>
       <c r="B45" s="101"/>
       <c r="C45" s="102" t="s">
@@ -3397,7 +3467,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A46" s="95"/>
       <c r="B46" s="108"/>
       <c r="C46" s="109" t="s">
@@ -3430,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="66" t="s">
         <v>71</v>
       </c>
@@ -3448,7 +3518,7 @@
       <c r="H47" s="115"/>
       <c r="I47" s="99">
         <f>SUM(H48:H51)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J47" s="71"/>
       <c r="K47" s="71"/>
@@ -3477,7 +3547,7 @@
       <c r="AE47" s="71"/>
       <c r="AF47" s="71"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A48" s="116"/>
       <c r="B48" s="117"/>
       <c r="C48" s="118" t="s">
@@ -3495,20 +3565,22 @@
       <c r="G48" s="122"/>
       <c r="H48" s="121">
         <f>SUM(M48:Q48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" s="123"/>
-      <c r="M48" s="124"/>
+      <c r="M48" s="124">
+        <v>2</v>
+      </c>
       <c r="N48" s="124"/>
       <c r="O48" s="124"/>
       <c r="P48" s="124"/>
       <c r="Q48" s="124"/>
       <c r="R48" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A49" s="66"/>
       <c r="B49" s="82"/>
       <c r="C49" s="81" t="s">
@@ -3526,20 +3598,22 @@
       <c r="G49" s="78"/>
       <c r="H49" s="126">
         <f>SUM(M49:Q49)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49" s="78"/>
-      <c r="M49" s="94"/>
+      <c r="M49" s="94">
+        <v>3</v>
+      </c>
       <c r="N49" s="94"/>
       <c r="O49" s="94"/>
       <c r="P49" s="94"/>
       <c r="Q49" s="94"/>
       <c r="R49" s="94">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A50" s="66"/>
       <c r="B50" s="82"/>
       <c r="C50" s="81" t="s">
@@ -3557,20 +3631,28 @@
       <c r="G50" s="78"/>
       <c r="H50" s="126">
         <f>SUM(M50:Q50)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I50" s="78"/>
       <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="94"/>
+      <c r="N50" s="94">
+        <v>6</v>
+      </c>
+      <c r="O50" s="94">
+        <v>1</v>
+      </c>
+      <c r="P50" s="94">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="94">
+        <v>2</v>
+      </c>
       <c r="R50" s="94">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A51" s="66"/>
       <c r="B51" s="83"/>
       <c r="C51" s="128" t="s">
@@ -3588,20 +3670,28 @@
       <c r="G51" s="88"/>
       <c r="H51" s="130">
         <f>SUM(M51:Q51)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I51" s="88"/>
       <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="131"/>
-      <c r="P51" s="131"/>
-      <c r="Q51" s="131"/>
+      <c r="N51" s="131">
+        <v>4</v>
+      </c>
+      <c r="O51" s="131">
+        <v>1</v>
+      </c>
+      <c r="P51" s="131">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="131">
+        <v>1</v>
+      </c>
       <c r="R51" s="131">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A52" s="66"/>
       <c r="B52" s="96" t="s">
         <v>43</v>
@@ -3617,7 +3707,7 @@
       <c r="H52" s="93"/>
       <c r="I52" s="99">
         <f>SUM(H53:H55)</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="M52" s="100"/>
       <c r="N52" s="100"/>
@@ -3629,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A53" s="66"/>
       <c r="B53" s="82"/>
       <c r="C53" s="81" t="s">
@@ -3647,20 +3737,30 @@
       <c r="G53" s="78"/>
       <c r="H53" s="126">
         <f>SUM(M53:Q53)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I53" s="78"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
-      <c r="O53" s="94"/>
-      <c r="P53" s="94"/>
-      <c r="Q53" s="94"/>
+      <c r="M53" s="94">
+        <v>1</v>
+      </c>
+      <c r="N53" s="94">
+        <v>1</v>
+      </c>
+      <c r="O53" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="P53" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="94">
+        <v>1</v>
+      </c>
       <c r="R53" s="94">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A54" s="66"/>
       <c r="B54" s="82"/>
       <c r="C54" s="81" t="s">
@@ -3678,20 +3778,24 @@
       <c r="G54" s="78"/>
       <c r="H54" s="126">
         <f>SUM(M54:Q54)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I54" s="78"/>
       <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
+      <c r="N54" s="94">
+        <v>7</v>
+      </c>
       <c r="O54" s="94"/>
       <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
+      <c r="Q54" s="94">
+        <v>3</v>
+      </c>
       <c r="R54" s="94">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A55" s="66"/>
       <c r="B55" s="83"/>
       <c r="C55" s="128" t="s">
@@ -3709,20 +3813,24 @@
       <c r="G55" s="88"/>
       <c r="H55" s="130">
         <f>SUM(M55:Q55)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I55" s="88"/>
       <c r="M55" s="131"/>
       <c r="N55" s="131"/>
-      <c r="O55" s="131"/>
-      <c r="P55" s="131"/>
+      <c r="O55" s="131">
+        <v>2</v>
+      </c>
+      <c r="P55" s="131">
+        <v>2</v>
+      </c>
       <c r="Q55" s="131"/>
       <c r="R55" s="131">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A56" s="66"/>
       <c r="B56" s="132" t="s">
         <v>51</v>
@@ -3738,7 +3846,7 @@
       <c r="H56" s="136"/>
       <c r="I56" s="137">
         <f>SUM(H57:H58)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M56" s="138"/>
       <c r="N56" s="138"/>
@@ -3750,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A57" s="116"/>
       <c r="B57" s="117"/>
       <c r="C57" s="118" t="s">
@@ -3768,124 +3876,1122 @@
       <c r="G57" s="122"/>
       <c r="H57" s="139">
         <f>SUM(M57:Q57)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I57" s="123"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="124"/>
+      <c r="M57" s="124">
+        <v>1</v>
+      </c>
+      <c r="N57" s="124">
+        <v>3</v>
+      </c>
+      <c r="O57" s="124">
+        <v>3</v>
+      </c>
       <c r="P57" s="124"/>
       <c r="Q57" s="124"/>
       <c r="R57" s="124">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="140"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A58" s="116"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="85" t="s">
+      <c r="D58" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="153" t="s">
+      <c r="E58" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="130">
+      <c r="F58" s="77">
         <v>4</v>
       </c>
-      <c r="G58" s="88"/>
-      <c r="H58" s="130">
-        <f>SUM(M58:Q58)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="88"/>
-      <c r="M58" s="131"/>
-      <c r="N58" s="131"/>
-      <c r="O58" s="131"/>
-      <c r="P58" s="131"/>
-      <c r="Q58" s="131"/>
-      <c r="R58" s="131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="146" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="141" t="s">
+      <c r="G58" s="144"/>
+      <c r="H58" s="77">
+        <v>4</v>
+      </c>
+      <c r="I58" s="78"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94">
+        <v>1</v>
+      </c>
+      <c r="O58" s="94">
+        <v>1</v>
+      </c>
+      <c r="P58" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="94">
+        <v>1</v>
+      </c>
+      <c r="R58" s="94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="145"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="99">
+        <f>SUM(F60:F61)</f>
+        <v>4</v>
+      </c>
+      <c r="H59" s="93"/>
+      <c r="I59" s="99">
+        <f>SUM(H60:H61)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100">
+        <f t="shared" ref="R59:R75" si="4">SUM(M59:Q59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="95"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="105">
+        <v>1</v>
+      </c>
+      <c r="G60" s="106"/>
+      <c r="H60" s="105">
+        <f>SUM(M60:Q60)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="106"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107"/>
+      <c r="O60" s="107"/>
+      <c r="P60" s="107"/>
+      <c r="Q60" s="107"/>
+      <c r="R60" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A61" s="95"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="105">
+        <v>3</v>
+      </c>
+      <c r="G61" s="106"/>
+      <c r="H61" s="105">
+        <f>SUM(M61:Q61)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="106"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
+      <c r="R61" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A62" s="95"/>
+      <c r="B62" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="97"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="99">
+        <f>SUM(F63:F65)</f>
+        <v>14</v>
+      </c>
+      <c r="H62" s="93"/>
+      <c r="I62" s="99">
+        <f>SUM(H63:H65)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A63" s="95"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="105">
+        <v>5</v>
+      </c>
+      <c r="G63" s="106"/>
+      <c r="H63" s="105">
+        <v>0</v>
+      </c>
+      <c r="I63" s="106"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="107"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A64" s="95"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="105">
+        <v>5</v>
+      </c>
+      <c r="G64" s="106"/>
+      <c r="H64" s="105">
+        <v>0</v>
+      </c>
+      <c r="I64" s="106"/>
+      <c r="M64" s="107"/>
+      <c r="N64" s="107"/>
+      <c r="O64" s="107"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A65" s="95"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="112">
+        <v>4</v>
+      </c>
+      <c r="G65" s="113"/>
+      <c r="H65" s="112">
+        <v>0</v>
+      </c>
+      <c r="I65" s="113"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A66" s="95"/>
+      <c r="B66" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="97"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="99">
+        <f>SUM(F67:F69)</f>
+        <v>10</v>
+      </c>
+      <c r="H66" s="93"/>
+      <c r="I66" s="99">
+        <f>SUM(H67:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="100"/>
+      <c r="N66" s="100"/>
+      <c r="O66" s="100"/>
+      <c r="P66" s="100"/>
+      <c r="Q66" s="100"/>
+      <c r="R66" s="100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A67" s="95"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="105">
+        <v>3</v>
+      </c>
+      <c r="G67" s="106"/>
+      <c r="H67" s="105">
+        <v>0</v>
+      </c>
+      <c r="I67" s="106"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+    </row>
+    <row r="68" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A68" s="95"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="105">
+        <v>5</v>
+      </c>
+      <c r="G68" s="106"/>
+      <c r="H68" s="105">
+        <v>0</v>
+      </c>
+      <c r="I68" s="106"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="107"/>
+      <c r="P68" s="107"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A69" s="95"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="112">
+        <v>2</v>
+      </c>
+      <c r="G69" s="113"/>
+      <c r="H69" s="112">
+        <v>0</v>
+      </c>
+      <c r="I69" s="113"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A70" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="97"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="99">
+        <f>SUM(F71:F73)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="93"/>
+      <c r="I70" s="99">
+        <f>SUM(H71:H73)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="100"/>
+      <c r="N70" s="100"/>
+      <c r="O70" s="100"/>
+      <c r="P70" s="100"/>
+      <c r="Q70" s="100"/>
+      <c r="R70" s="100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A71" s="116"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="126">
+        <v>0</v>
+      </c>
+      <c r="G71" s="78"/>
+      <c r="H71" s="126">
+        <f>SUM(M70:Q70)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="78"/>
+      <c r="M71" s="124"/>
+      <c r="N71" s="124"/>
+      <c r="O71" s="124"/>
+      <c r="P71" s="124"/>
+      <c r="Q71" s="124"/>
+      <c r="R71" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A72" s="66"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="126">
+        <v>0</v>
+      </c>
+      <c r="G72" s="78"/>
+      <c r="H72" s="126">
+        <f>SUM(L76:L76)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="78"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A73" s="66"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="130">
+        <v>0</v>
+      </c>
+      <c r="G73" s="88"/>
+      <c r="H73" s="130">
+        <f>SUM(L77:L77)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="88"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="94"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="94"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A74" s="66"/>
+      <c r="B74" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="133"/>
+      <c r="D74" s="134"/>
+      <c r="E74" s="135"/>
+      <c r="F74" s="136"/>
+      <c r="G74" s="137">
+        <f>SUM(F75:F75)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="136"/>
+      <c r="I74" s="137">
+        <f>SUM(H75:H75)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="100"/>
+      <c r="N74" s="100"/>
+      <c r="O74" s="100"/>
+      <c r="P74" s="100"/>
+      <c r="Q74" s="100"/>
+      <c r="R74" s="100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+    </row>
+    <row r="75" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A75" s="66"/>
+      <c r="B75" s="143"/>
+      <c r="C75" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="77">
+        <v>0</v>
+      </c>
+      <c r="G75" s="144"/>
+      <c r="H75" s="77">
+        <v>0</v>
+      </c>
+      <c r="I75" s="78"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="94"/>
+      <c r="O75" s="94"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A76" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="141"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="144">
-        <f>SUM(F5:F58)</f>
-        <v>166</v>
-      </c>
-      <c r="G59" s="145">
-        <f>SUM(G5:G58)</f>
-        <v>166</v>
-      </c>
-      <c r="H59" s="144">
-        <f>SUM(M59:Q59)</f>
-        <v>99.05</v>
-      </c>
-      <c r="I59" s="145">
-        <f>SUM(I5:I58)</f>
-        <v>105.1</v>
-      </c>
-      <c r="M59" s="147">
-        <f>SUM(M5:M58)</f>
-        <v>24.55</v>
-      </c>
-      <c r="N59" s="147">
-        <f>SUM(N5:N58)</f>
-        <v>13.5</v>
-      </c>
-      <c r="O59" s="147"/>
-      <c r="P59" s="147">
-        <f>SUM(P5:P58)</f>
-        <v>17.75</v>
-      </c>
-      <c r="Q59" s="147">
-        <f>SUM(Q5:Q58)</f>
-        <v>43.25</v>
-      </c>
-      <c r="R59" s="147">
-        <f t="shared" si="3"/>
-        <v>99.05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D60" s="148"/>
-      <c r="M60" s="149"/>
-      <c r="N60" s="149"/>
-      <c r="O60" s="149"/>
-      <c r="P60" s="149"/>
-      <c r="Q60" s="149"/>
-    </row>
-    <row r="61" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D61" s="148"/>
-      <c r="M61" s="149"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="149"/>
-      <c r="P61" s="149"/>
-      <c r="Q61" s="149"/>
-    </row>
-    <row r="62" spans="1:18" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D62" s="148"/>
-      <c r="M62" s="149"/>
-      <c r="N62" s="149"/>
-      <c r="O62" s="149"/>
-      <c r="P62" s="149"/>
-      <c r="Q62" s="149"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="150">
+        <f>SUM(F5:F75)</f>
+        <v>194</v>
+      </c>
+      <c r="G76" s="151">
+        <f>SUM(G5:G75)</f>
+        <v>194</v>
+      </c>
+      <c r="H76" s="153">
+        <f>SUM(M76:Q76)</f>
+        <v>162.6</v>
+      </c>
+      <c r="I76" s="151">
+        <f>SUM(I5:I75)</f>
+        <v>162.6</v>
+      </c>
+      <c r="J76" s="152"/>
+      <c r="K76" s="152"/>
+      <c r="L76" s="152"/>
+      <c r="M76" s="153">
+        <f>SUM(M5:M75)</f>
+        <v>31.55</v>
+      </c>
+      <c r="N76" s="153">
+        <f>SUM(N5:N75)</f>
+        <v>35.5</v>
+      </c>
+      <c r="O76" s="155">
+        <f>SUM(O5:O75)</f>
+        <v>14.55</v>
+      </c>
+      <c r="P76" s="153">
+        <f>SUM(P5:P75)</f>
+        <v>29.75</v>
+      </c>
+      <c r="Q76" s="153">
+        <f>SUM(Q5:Q75)</f>
+        <v>51.25</v>
+      </c>
+      <c r="R76" s="153">
+        <f>SUM(M76:Q76)</f>
+        <v>162.6</v>
+      </c>
+      <c r="S76" s="152"/>
+      <c r="T76" s="152"/>
+      <c r="U76" s="152"/>
+      <c r="V76" s="152"/>
+      <c r="W76" s="152"/>
+      <c r="X76" s="152"/>
+      <c r="Y76" s="152"/>
+      <c r="Z76" s="152"/>
+      <c r="AA76" s="152"/>
+      <c r="AB76" s="152"/>
+      <c r="AC76" s="152"/>
+      <c r="AD76" s="152"/>
+      <c r="AE76" s="152"/>
+      <c r="AF76" s="152"/>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="4"/>
+      <c r="M77" s="154"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A88" s="4"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A89" s="4"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A90" s="4"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A91" s="4"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A92" s="4"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="2"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="I5:I59 M5:R59">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I5:I75 M5:R75">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documentation/Estimated_Effort.xlsx
+++ b/documentation/Estimated_Effort.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irem_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariamhabib\Documents\Software Engineering Capstone\Iteration 4 Closeout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B2DAA2-5C60-4D18-81DB-19BD96B919F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD8460-0B59-4B00-A894-17F8F7DDCA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team1_Estimated_Effort" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -334,10 +334,22 @@
     <t>Develop business logic</t>
   </si>
   <si>
-    <t>Fix HTML and CSS patterns as needed</t>
-  </si>
-  <si>
     <t>Scott, Maryam</t>
+  </si>
+  <si>
+    <t>Irem, Scott</t>
+  </si>
+  <si>
+    <t>Implement django signals to triggers events to notify users</t>
+  </si>
+  <si>
+    <t>Create dashboard UI and Logic</t>
+  </si>
+  <si>
+    <t>Create error pages</t>
+  </si>
+  <si>
+    <t>Fix HTML and CSS patterns</t>
   </si>
 </sst>
 </file>
@@ -348,7 +360,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -441,12 +453,6 @@
       <sz val="2"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="4"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -678,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1139,8 +1145,16 @@
     <xf numFmtId="165" fontId="13" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="14" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1593,30 +1607,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF92"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.71875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.71875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.71875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.71875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
     <col min="10" max="12" width="9" style="4"/>
     <col min="13" max="17" width="9" style="7"/>
     <col min="18" max="32" width="9" style="4"/>
     <col min="33" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1650,7 +1664,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1712,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1754,7 +1768,7 @@
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
     </row>
-    <row r="4" spans="1:32" s="19" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -1808,7 +1822,7 @@
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
     </row>
-    <row r="5" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
@@ -1844,7 +1858,7 @@
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
     </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1902,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="40" t="s">
@@ -1939,7 +1953,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" s="33" t="s">
         <v>20</v>
@@ -1984,7 +1998,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="47" t="s">
@@ -2042,7 +2056,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="47" t="s">
@@ -2100,7 +2114,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="47" t="s">
@@ -2158,7 +2172,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="33" t="s">
         <v>26</v>
@@ -2203,7 +2217,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="47" t="s">
@@ -2255,7 +2269,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="47" t="s">
@@ -2305,7 +2319,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="47" t="s">
@@ -2359,7 +2373,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="32"/>
       <c r="C16" s="47" t="s">
@@ -2413,7 +2427,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="47" t="s">
@@ -2467,7 +2481,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="47" t="s">
@@ -2517,7 +2531,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
       <c r="C19" s="51" t="s">
@@ -2552,7 +2566,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="57" t="s">
         <v>41</v>
       </c>
@@ -2577,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
         <v>42</v>
       </c>
@@ -2624,7 +2638,7 @@
       <c r="AE21" s="71"/>
       <c r="AF21" s="71"/>
     </row>
-    <row r="22" spans="1:32" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
       <c r="B22" s="73"/>
       <c r="C22" s="74" t="s">
@@ -2682,7 +2696,7 @@
       <c r="AE22" s="71"/>
       <c r="AF22" s="71"/>
     </row>
-    <row r="23" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
       <c r="B23" s="73"/>
       <c r="C23" s="74" t="s">
@@ -2720,7 +2734,7 @@
       </c>
       <c r="R23" s="80"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
       <c r="B24" s="73"/>
       <c r="C24" s="74" t="s">
@@ -2755,7 +2769,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
       <c r="B25" s="82"/>
       <c r="C25" s="81" t="s">
@@ -2788,7 +2802,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
       <c r="B26" s="83"/>
       <c r="C26" s="84" t="s">
@@ -2821,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
       <c r="B27" s="90" t="s">
         <v>51</v>
@@ -2849,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
       <c r="B28" s="82"/>
       <c r="C28" s="74" t="s">
@@ -2882,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
       <c r="B29" s="82"/>
       <c r="C29" s="74" t="s">
@@ -2915,7 +2929,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
       <c r="B30" s="82"/>
       <c r="C30" s="74" t="s">
@@ -2952,7 +2966,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95" t="s">
         <v>57</v>
       </c>
@@ -2999,7 +3013,7 @@
       <c r="AE31" s="71"/>
       <c r="AF31" s="71"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="95"/>
       <c r="B32" s="101"/>
       <c r="C32" s="102" t="s">
@@ -3032,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="95"/>
       <c r="B33" s="101"/>
       <c r="C33" s="102" t="s">
@@ -3065,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="95"/>
       <c r="B34" s="101"/>
       <c r="C34" s="102" t="s">
@@ -3098,7 +3112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="95"/>
       <c r="B35" s="101"/>
       <c r="C35" s="102" t="s">
@@ -3131,7 +3145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="95"/>
       <c r="B36" s="108"/>
       <c r="C36" s="109" t="s">
@@ -3164,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="95"/>
       <c r="B37" s="96" t="s">
         <v>43</v>
@@ -3192,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" s="95"/>
       <c r="B38" s="101"/>
       <c r="C38" s="102" t="s">
@@ -3231,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="95"/>
       <c r="B39" s="101"/>
       <c r="C39" s="102" t="s">
@@ -3264,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" s="95"/>
       <c r="B40" s="101"/>
       <c r="C40" s="102" t="s">
@@ -3297,7 +3311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="95"/>
       <c r="B41" s="101"/>
       <c r="C41" s="102" t="s">
@@ -3330,7 +3344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="95"/>
       <c r="B42" s="108"/>
       <c r="C42" s="109" t="s">
@@ -3365,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="95"/>
       <c r="B43" s="96" t="s">
         <v>51</v>
@@ -3393,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="95"/>
       <c r="B44" s="101"/>
       <c r="C44" s="102" t="s">
@@ -3428,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A45" s="95"/>
       <c r="B45" s="101"/>
       <c r="C45" s="102" t="s">
@@ -3467,7 +3481,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="95"/>
       <c r="B46" s="108"/>
       <c r="C46" s="109" t="s">
@@ -3500,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="66" t="s">
         <v>71</v>
       </c>
@@ -3547,7 +3561,7 @@
       <c r="AE47" s="71"/>
       <c r="AF47" s="71"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="116"/>
       <c r="B48" s="117"/>
       <c r="C48" s="118" t="s">
@@ -3580,7 +3594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="66"/>
       <c r="B49" s="82"/>
       <c r="C49" s="81" t="s">
@@ -3613,7 +3627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A50" s="66"/>
       <c r="B50" s="82"/>
       <c r="C50" s="81" t="s">
@@ -3652,7 +3666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A51" s="66"/>
       <c r="B51" s="83"/>
       <c r="C51" s="128" t="s">
@@ -3691,7 +3705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="66"/>
       <c r="B52" s="96" t="s">
         <v>43</v>
@@ -3719,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="82"/>
       <c r="C53" s="81" t="s">
@@ -3760,7 +3774,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="82"/>
       <c r="C54" s="81" t="s">
@@ -3795,7 +3809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="83"/>
       <c r="C55" s="128" t="s">
@@ -3830,7 +3844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="132" t="s">
         <v>51</v>
@@ -3858,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A57" s="116"/>
       <c r="B57" s="117"/>
       <c r="C57" s="118" t="s">
@@ -3895,7 +3909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A58" s="116"/>
       <c r="B58" s="143"/>
       <c r="C58" s="81" t="s">
@@ -3932,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="95" t="s">
         <v>80</v>
       </c>
@@ -3950,7 +3964,7 @@
       <c r="H59" s="93"/>
       <c r="I59" s="99">
         <f>SUM(H60:H61)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
@@ -3958,11 +3972,11 @@
       <c r="P59" s="100"/>
       <c r="Q59" s="100"/>
       <c r="R59" s="100">
-        <f t="shared" ref="R59:R75" si="4">SUM(M59:Q59)</f>
+        <f t="shared" ref="R59:R76" si="4">SUM(M59:Q59)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="95"/>
       <c r="B60" s="101"/>
       <c r="C60" s="102" t="s">
@@ -3980,20 +3994,22 @@
       <c r="G60" s="106"/>
       <c r="H60" s="105">
         <f>SUM(M60:Q60)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" s="106"/>
-      <c r="M60" s="107"/>
+      <c r="M60" s="107">
+        <v>2</v>
+      </c>
       <c r="N60" s="107"/>
       <c r="O60" s="107"/>
       <c r="P60" s="107"/>
       <c r="Q60" s="107"/>
       <c r="R60" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="95"/>
       <c r="B61" s="101"/>
       <c r="C61" s="102" t="s">
@@ -4011,17 +4027,19 @@
       <c r="G61" s="106"/>
       <c r="H61" s="105">
         <f>SUM(M61:Q61)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61" s="106"/>
       <c r="M61" s="107"/>
       <c r="N61" s="107"/>
       <c r="O61" s="107"/>
       <c r="P61" s="107"/>
-      <c r="Q61" s="107"/>
+      <c r="Q61" s="107">
+        <v>3</v>
+      </c>
       <c r="R61" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
@@ -4033,7 +4051,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="95"/>
       <c r="B62" s="96" t="s">
         <v>43</v>
@@ -4049,7 +4067,7 @@
       <c r="H62" s="93"/>
       <c r="I62" s="99">
         <f>SUM(H63:H65)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M62" s="100"/>
       <c r="N62" s="100"/>
@@ -4070,7 +4088,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="95"/>
       <c r="B63" s="101"/>
       <c r="C63" s="102" t="s">
@@ -4087,14 +4105,16 @@
       </c>
       <c r="G63" s="106"/>
       <c r="H63" s="105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I63" s="106"/>
       <c r="M63" s="107"/>
       <c r="N63" s="107"/>
       <c r="O63" s="107"/>
       <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
+      <c r="Q63" s="107">
+        <v>5</v>
+      </c>
       <c r="R63" s="107"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
@@ -4106,7 +4126,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="95"/>
       <c r="B64" s="101"/>
       <c r="C64" s="102" t="s">
@@ -4123,17 +4143,19 @@
       </c>
       <c r="G64" s="106"/>
       <c r="H64" s="105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I64" s="106"/>
       <c r="M64" s="107"/>
-      <c r="N64" s="107"/>
+      <c r="N64" s="107">
+        <v>5</v>
+      </c>
       <c r="O64" s="107"/>
       <c r="P64" s="107"/>
       <c r="Q64" s="107"/>
       <c r="R64" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
@@ -4145,7 +4167,7 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="95"/>
       <c r="B65" s="108"/>
       <c r="C65" s="109" t="s">
@@ -4162,17 +4184,21 @@
       </c>
       <c r="G65" s="113"/>
       <c r="H65" s="112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I65" s="113"/>
       <c r="M65" s="107"/>
       <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="107"/>
+      <c r="O65" s="107">
+        <v>2</v>
+      </c>
+      <c r="P65" s="107">
+        <v>2</v>
+      </c>
       <c r="Q65" s="107"/>
       <c r="R65" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
@@ -4184,7 +4210,7 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="95"/>
       <c r="B66" s="96" t="s">
         <v>51</v>
@@ -4200,7 +4226,7 @@
       <c r="H66" s="93"/>
       <c r="I66" s="99">
         <f>SUM(H67:H69)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M66" s="100"/>
       <c r="N66" s="100"/>
@@ -4221,7 +4247,7 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="95"/>
       <c r="B67" s="101"/>
       <c r="C67" s="102" t="s">
@@ -4238,17 +4264,21 @@
       </c>
       <c r="G67" s="106"/>
       <c r="H67" s="105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I67" s="106"/>
       <c r="M67" s="107"/>
       <c r="N67" s="107"/>
-      <c r="O67" s="107"/>
-      <c r="P67" s="107"/>
+      <c r="O67" s="107">
+        <v>2</v>
+      </c>
+      <c r="P67" s="107">
+        <v>2</v>
+      </c>
       <c r="Q67" s="107"/>
       <c r="R67" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
@@ -4260,7 +4290,7 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A68" s="95"/>
       <c r="B68" s="101"/>
       <c r="C68" s="102" t="s">
@@ -4277,17 +4307,25 @@
       </c>
       <c r="G68" s="106"/>
       <c r="H68" s="105">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I68" s="106"/>
       <c r="M68" s="107"/>
-      <c r="N68" s="107"/>
-      <c r="O68" s="107"/>
-      <c r="P68" s="107"/>
-      <c r="Q68" s="107"/>
+      <c r="N68" s="107">
+        <v>2</v>
+      </c>
+      <c r="O68" s="107">
+        <v>1</v>
+      </c>
+      <c r="P68" s="107">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="107">
+        <v>1</v>
+      </c>
       <c r="R68" s="107">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
@@ -4299,7 +4337,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="95"/>
       <c r="B69" s="108"/>
       <c r="C69" s="109" t="s">
@@ -4316,17 +4354,19 @@
       </c>
       <c r="G69" s="113"/>
       <c r="H69" s="112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="113"/>
-      <c r="M69" s="114"/>
+      <c r="M69" s="114">
+        <v>1</v>
+      </c>
       <c r="N69" s="114"/>
       <c r="O69" s="114"/>
       <c r="P69" s="114"/>
       <c r="Q69" s="114"/>
       <c r="R69" s="114">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
@@ -4338,7 +4378,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="66" t="s">
         <v>81</v>
       </c>
@@ -4350,14 +4390,11 @@
       <c r="E70" s="98"/>
       <c r="F70" s="93"/>
       <c r="G70" s="99">
-        <f>SUM(F71:F73)</f>
-        <v>0</v>
+        <f>SUM(F71:F74)</f>
+        <v>18</v>
       </c>
       <c r="H70" s="93"/>
-      <c r="I70" s="99">
-        <f>SUM(H71:H73)</f>
-        <v>0</v>
-      </c>
+      <c r="I70" s="99"/>
       <c r="M70" s="100"/>
       <c r="N70" s="100"/>
       <c r="O70" s="100"/>
@@ -4377,20 +4414,20 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A71" s="116"/>
       <c r="B71" s="82"/>
       <c r="C71" s="81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>45</v>
       </c>
       <c r="E71" s="127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="126">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G71" s="78"/>
       <c r="H71" s="126">
@@ -4417,11 +4454,11 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="66"/>
       <c r="B72" s="82"/>
       <c r="C72" s="81" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>45</v>
@@ -4430,11 +4467,11 @@
         <v>2</v>
       </c>
       <c r="F72" s="126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G72" s="78"/>
       <c r="H72" s="126">
-        <f>SUM(L76:L76)</f>
+        <f>SUM(L79:L79)</f>
         <v>0</v>
       </c>
       <c r="I72" s="78"/>
@@ -4457,36 +4494,30 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="F73" s="130">
-        <v>0</v>
-      </c>
-      <c r="G73" s="88"/>
-      <c r="H73" s="130">
-        <f>SUM(L77:L77)</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="88"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="126">
+        <v>2</v>
+      </c>
+      <c r="G73" s="78"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="78"/>
       <c r="M73" s="94"/>
       <c r="N73" s="94"/>
       <c r="O73" s="94"/>
       <c r="P73" s="94"/>
       <c r="Q73" s="94"/>
-      <c r="R73" s="94">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="R73" s="94"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -4497,30 +4528,30 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="133"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="135"/>
-      <c r="F74" s="136"/>
-      <c r="G74" s="137">
-        <f>SUM(F75:F75)</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="136"/>
-      <c r="I74" s="137">
-        <f>SUM(H75:H75)</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="100"/>
-      <c r="N74" s="100"/>
-      <c r="O74" s="100"/>
-      <c r="P74" s="100"/>
-      <c r="Q74" s="100"/>
-      <c r="R74" s="100">
+      <c r="B74" s="83"/>
+      <c r="C74" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="130">
+        <v>4</v>
+      </c>
+      <c r="G74" s="88"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="88"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="94"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="94"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4534,32 +4565,29 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="F75" s="77">
+      <c r="B75" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="133"/>
+      <c r="D75" s="134"/>
+      <c r="E75" s="135"/>
+      <c r="F75" s="136"/>
+      <c r="G75" s="137">
+        <v>15</v>
+      </c>
+      <c r="H75" s="136"/>
+      <c r="I75" s="137">
+        <f>SUM(H76:H76)</f>
         <v>0</v>
       </c>
-      <c r="G75" s="144"/>
-      <c r="H75" s="77">
-        <v>0</v>
-      </c>
-      <c r="I75" s="78"/>
-      <c r="M75" s="94"/>
-      <c r="N75" s="94"/>
-      <c r="O75" s="94"/>
-      <c r="P75" s="94"/>
-      <c r="Q75" s="94"/>
-      <c r="R75" s="94">
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
+      <c r="O75" s="100"/>
+      <c r="P75" s="100"/>
+      <c r="Q75" s="100"/>
+      <c r="R75" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4573,92 +4601,69 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A76" s="147" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="147"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="149"/>
-      <c r="F76" s="150">
-        <f>SUM(F5:F75)</f>
-        <v>194</v>
-      </c>
-      <c r="G76" s="151">
-        <f>SUM(G5:G75)</f>
-        <v>194</v>
-      </c>
-      <c r="H76" s="153">
-        <f>SUM(M76:Q76)</f>
-        <v>162.6</v>
-      </c>
-      <c r="I76" s="151">
-        <f>SUM(I5:I75)</f>
-        <v>162.6</v>
-      </c>
-      <c r="J76" s="152"/>
-      <c r="K76" s="152"/>
-      <c r="L76" s="152"/>
-      <c r="M76" s="153">
-        <f>SUM(M5:M75)</f>
-        <v>31.55</v>
-      </c>
-      <c r="N76" s="153">
-        <f>SUM(N5:N75)</f>
-        <v>35.5</v>
-      </c>
-      <c r="O76" s="155">
-        <f>SUM(O5:O75)</f>
-        <v>14.55</v>
-      </c>
-      <c r="P76" s="153">
-        <f>SUM(P5:P75)</f>
-        <v>29.75</v>
-      </c>
-      <c r="Q76" s="153">
-        <f>SUM(Q5:Q75)</f>
-        <v>51.25</v>
-      </c>
-      <c r="R76" s="153">
-        <f>SUM(M76:Q76)</f>
-        <v>162.6</v>
-      </c>
-      <c r="S76" s="152"/>
-      <c r="T76" s="152"/>
-      <c r="U76" s="152"/>
-      <c r="V76" s="152"/>
-      <c r="W76" s="152"/>
-      <c r="X76" s="152"/>
-      <c r="Y76" s="152"/>
-      <c r="Z76" s="152"/>
-      <c r="AA76" s="152"/>
-      <c r="AB76" s="152"/>
-      <c r="AC76" s="152"/>
-      <c r="AD76" s="152"/>
-      <c r="AE76" s="152"/>
-      <c r="AF76" s="152"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="4"/>
-      <c r="M77" s="154"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
+    <row r="76" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="66"/>
+      <c r="B76" s="143"/>
+      <c r="C76" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" s="77">
+        <v>4</v>
+      </c>
+      <c r="G76" s="144"/>
+      <c r="H76" s="77">
+        <v>0</v>
+      </c>
+      <c r="I76" s="78"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+    </row>
+    <row r="77" spans="1:32" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="155"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="75">
+        <v>5</v>
+      </c>
+      <c r="G77" s="156"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="157"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="80"/>
+      <c r="Q77" s="80"/>
+      <c r="R77" s="80"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
@@ -4669,26 +4674,30 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A78" s="155"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="75">
+        <v>6</v>
+      </c>
+      <c r="G78" s="156"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="157"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="80"/>
+      <c r="P78" s="80"/>
+      <c r="Q78" s="80"/>
+      <c r="R78" s="80"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
@@ -4699,37 +4708,73 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="2"/>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A79" s="147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="147"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150">
+        <f>SUM(F5:F77)</f>
+        <v>221</v>
+      </c>
+      <c r="G79" s="151">
+        <f>SUM(G5:G76)</f>
+        <v>227</v>
+      </c>
+      <c r="H79" s="153">
+        <f>SUM(M79:Q79)</f>
+        <v>191.6</v>
+      </c>
+      <c r="I79" s="151">
+        <f>SUM(I5:I76)</f>
+        <v>191.6</v>
+      </c>
+      <c r="J79" s="152"/>
+      <c r="K79" s="152"/>
+      <c r="L79" s="152"/>
+      <c r="M79" s="153">
+        <f>SUM(M5:M76)</f>
+        <v>34.549999999999997</v>
+      </c>
+      <c r="N79" s="153">
+        <f>SUM(N5:N76)</f>
+        <v>42.5</v>
+      </c>
+      <c r="O79" s="154">
+        <f>SUM(O5:O76)</f>
+        <v>19.55</v>
+      </c>
+      <c r="P79" s="153">
+        <f>SUM(P5:P76)</f>
+        <v>34.75</v>
+      </c>
+      <c r="Q79" s="153">
+        <f>SUM(Q5:Q76)</f>
+        <v>60.25</v>
+      </c>
+      <c r="R79" s="153">
+        <f>SUM(M79:Q79)</f>
+        <v>191.6</v>
+      </c>
+      <c r="S79" s="152"/>
+      <c r="T79" s="152"/>
+      <c r="U79" s="152"/>
+      <c r="V79" s="152"/>
+      <c r="W79" s="152"/>
+      <c r="X79" s="152"/>
+      <c r="Y79" s="152"/>
+      <c r="Z79" s="152"/>
+      <c r="AA79" s="152"/>
+      <c r="AB79" s="152"/>
+      <c r="AC79" s="152"/>
+      <c r="AD79" s="152"/>
+      <c r="AE79" s="152"/>
+      <c r="AF79" s="152"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -4759,20 +4804,20 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="H81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
+      <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -4789,20 +4834,26 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="H82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
@@ -4813,7 +4864,7 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4827,6 +4878,12 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
@@ -4837,7 +4894,7 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4861,7 +4918,7 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4885,7 +4942,7 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4909,7 +4966,7 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4918,6 +4975,11 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
@@ -4928,8 +4990,20 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
@@ -4940,8 +5014,15 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
@@ -4952,7 +5033,7 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
@@ -4964,7 +5045,7 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
@@ -4976,7 +5057,7 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
@@ -4988,10 +5069,34 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
     </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2"/>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="I5:I75 M5:R75">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I5:I78 M5:R78">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documentation/Estimated_Effort.xlsx
+++ b/documentation/Estimated_Effort.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariamhabib\Documents\Software Engineering Capstone\Iteration 4 Closeout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariamhabib\Documents\Software Engineering Capstone\Iteration 5 Closeout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD8460-0B59-4B00-A894-17F8F7DDCA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B55FDB-E204-4EBD-8C67-481F5C839F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="91">
   <si>
     <t>Task Name: (Dependencies top to bottom)</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Scott, Maryam</t>
   </si>
   <si>
-    <t>Irem, Scott</t>
-  </si>
-  <si>
     <t>Implement django signals to triggers events to notify users</t>
   </si>
   <si>
@@ -350,6 +347,12 @@
   </si>
   <si>
     <t>Fix HTML and CSS patterns</t>
+  </si>
+  <si>
+    <t>Mariam, Scott</t>
+  </si>
+  <si>
+    <t>Mariam, Grant</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1613,7 @@
   <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4394,7 +4397,9 @@
         <v>18</v>
       </c>
       <c r="H70" s="93"/>
-      <c r="I70" s="99"/>
+      <c r="I70" s="99">
+        <v>29</v>
+      </c>
       <c r="M70" s="100"/>
       <c r="N70" s="100"/>
       <c r="O70" s="100"/>
@@ -4418,7 +4423,7 @@
       <c r="A71" s="116"/>
       <c r="B71" s="82"/>
       <c r="C71" s="81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="75" t="s">
         <v>45</v>
@@ -4431,18 +4436,21 @@
       </c>
       <c r="G71" s="78"/>
       <c r="H71" s="126">
-        <f>SUM(M70:Q70)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I71" s="78"/>
       <c r="M71" s="124"/>
-      <c r="N71" s="124"/>
+      <c r="N71" s="124">
+        <v>8</v>
+      </c>
       <c r="O71" s="124"/>
       <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
+      <c r="Q71" s="124">
+        <v>2</v>
+      </c>
       <c r="R71" s="124">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
@@ -4458,7 +4466,7 @@
       <c r="A72" s="66"/>
       <c r="B72" s="82"/>
       <c r="C72" s="81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="75" t="s">
         <v>45</v>
@@ -4471,18 +4479,19 @@
       </c>
       <c r="G72" s="78"/>
       <c r="H72" s="126">
-        <f>SUM(L79:L79)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I72" s="78"/>
       <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
+      <c r="N72" s="94">
+        <v>8</v>
+      </c>
       <c r="O72" s="94"/>
       <c r="P72" s="94"/>
       <c r="Q72" s="94"/>
       <c r="R72" s="94">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
@@ -4498,26 +4507,34 @@
       <c r="A73" s="66"/>
       <c r="B73" s="82"/>
       <c r="C73" s="81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="127" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F73" s="126">
         <v>2</v>
       </c>
       <c r="G73" s="78"/>
-      <c r="H73" s="126"/>
+      <c r="H73" s="126">
+        <v>6</v>
+      </c>
       <c r="I73" s="78"/>
-      <c r="M73" s="94"/>
-      <c r="N73" s="94"/>
+      <c r="M73" s="94">
+        <v>2</v>
+      </c>
+      <c r="N73" s="94">
+        <v>4</v>
+      </c>
       <c r="O73" s="94"/>
       <c r="P73" s="94"/>
       <c r="Q73" s="94"/>
-      <c r="R73" s="94"/>
+      <c r="R73" s="94">
+        <v>6</v>
+      </c>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -4532,28 +4549,34 @@
       <c r="A74" s="66"/>
       <c r="B74" s="83"/>
       <c r="C74" s="128" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74" s="85" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="129" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F74" s="130">
         <v>4</v>
       </c>
       <c r="G74" s="88"/>
-      <c r="H74" s="130"/>
+      <c r="H74" s="130">
+        <v>5</v>
+      </c>
       <c r="I74" s="88"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="94"/>
+      <c r="M74" s="94">
+        <v>2</v>
+      </c>
+      <c r="N74" s="94">
+        <v>3</v>
+      </c>
       <c r="O74" s="94"/>
       <c r="P74" s="94"/>
       <c r="Q74" s="94"/>
       <c r="R74" s="94">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
@@ -4579,8 +4602,7 @@
       </c>
       <c r="H75" s="136"/>
       <c r="I75" s="137">
-        <f>SUM(H76:H76)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M75" s="100"/>
       <c r="N75" s="100"/>
@@ -4618,17 +4640,25 @@
       </c>
       <c r="G76" s="144"/>
       <c r="H76" s="77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I76" s="78"/>
       <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
-      <c r="O76" s="94"/>
-      <c r="P76" s="94"/>
-      <c r="Q76" s="94"/>
+      <c r="N76" s="94">
+        <v>2</v>
+      </c>
+      <c r="O76" s="94">
+        <v>1</v>
+      </c>
+      <c r="P76" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="94">
+        <v>2</v>
+      </c>
       <c r="R76" s="94">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
@@ -4656,14 +4686,24 @@
         <v>5</v>
       </c>
       <c r="G77" s="156"/>
-      <c r="H77" s="75"/>
+      <c r="H77" s="75">
+        <v>6</v>
+      </c>
       <c r="I77" s="157"/>
-      <c r="M77" s="80"/>
-      <c r="N77" s="80"/>
-      <c r="O77" s="80"/>
+      <c r="M77" s="80">
+        <v>2</v>
+      </c>
+      <c r="N77" s="80">
+        <v>3</v>
+      </c>
+      <c r="O77" s="80">
+        <v>1</v>
+      </c>
       <c r="P77" s="80"/>
       <c r="Q77" s="80"/>
-      <c r="R77" s="80"/>
+      <c r="R77" s="80">
+        <v>6</v>
+      </c>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
@@ -4684,20 +4724,28 @@
         <v>38</v>
       </c>
       <c r="E78" s="127" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F78" s="75">
         <v>6</v>
       </c>
       <c r="G78" s="156"/>
-      <c r="H78" s="75"/>
+      <c r="H78" s="75">
+        <v>5</v>
+      </c>
       <c r="I78" s="157"/>
-      <c r="M78" s="80"/>
-      <c r="N78" s="80"/>
+      <c r="M78" s="80">
+        <v>2</v>
+      </c>
+      <c r="N78" s="80">
+        <v>3</v>
+      </c>
       <c r="O78" s="80"/>
       <c r="P78" s="80"/>
       <c r="Q78" s="80"/>
-      <c r="R78" s="80"/>
+      <c r="R78" s="80">
+        <v>5</v>
+      </c>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
@@ -4726,38 +4774,37 @@
       </c>
       <c r="H79" s="153">
         <f>SUM(M79:Q79)</f>
-        <v>191.6</v>
+        <v>233.72</v>
       </c>
       <c r="I79" s="151">
         <f>SUM(I5:I76)</f>
-        <v>191.6</v>
+        <v>237.6</v>
       </c>
       <c r="J79" s="152"/>
       <c r="K79" s="152"/>
       <c r="L79" s="152"/>
       <c r="M79" s="153">
         <f>SUM(M5:M76)</f>
-        <v>34.549999999999997</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="N79" s="153">
-        <f>SUM(N5:N76)</f>
-        <v>42.5</v>
+        <f>SUM(N5:N78)</f>
+        <v>73.5</v>
       </c>
       <c r="O79" s="154">
-        <f>SUM(O5:O76)</f>
-        <v>19.55</v>
+        <v>21.67</v>
       </c>
       <c r="P79" s="153">
         <f>SUM(P5:P76)</f>
-        <v>34.75</v>
+        <v>35.75</v>
       </c>
       <c r="Q79" s="153">
         <f>SUM(Q5:Q76)</f>
-        <v>60.25</v>
+        <v>64.25</v>
       </c>
       <c r="R79" s="153">
         <f>SUM(M79:Q79)</f>
-        <v>191.6</v>
+        <v>233.72</v>
       </c>
       <c r="S79" s="152"/>
       <c r="T79" s="152"/>
